--- a/Test/Epsilon/MSE1000008.xlsx
+++ b/Test/Epsilon/MSE1000008.xlsx
@@ -432,31 +432,31 @@
         <v>0.09230333679400241</v>
       </c>
       <c r="D1" t="n">
-        <v>0.06125175896981046</v>
+        <v>0.06512291791145181</v>
       </c>
       <c r="E1" t="n">
-        <v>0.05493062330480561</v>
+        <v>0.06250711913812462</v>
       </c>
       <c r="F1" t="n">
-        <v>0.03429667882208511</v>
+        <v>0.05331080160492507</v>
       </c>
       <c r="G1" t="n">
-        <v>0.02170845308379097</v>
+        <v>0.05261730119640268</v>
       </c>
       <c r="H1" t="n">
-        <v>0.02080238116979975</v>
+        <v>0.05263950075919586</v>
       </c>
       <c r="I1" t="n">
-        <v>0.01897742305920218</v>
+        <v>0.05236386871725333</v>
       </c>
       <c r="J1" t="n">
-        <v>0.019051268609373</v>
+        <v>0.05146964175772364</v>
       </c>
       <c r="K1" t="n">
-        <v>0.01902534961116666</v>
+        <v>0.05146964175772364</v>
       </c>
       <c r="L1" t="n">
-        <v>0.0187520872672844</v>
+        <v>0.05151772852746142</v>
       </c>
     </row>
   </sheetData>
